--- a/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
+++ b/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry-my.sharepoint.com/personal/janne_huovari_ptt_fi/Documents/Rpkg/pttrobo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry-my.sharepoint.com/personal/janne_huovari_ptt_fi/Documents/Rpkg/pttrobo/inst/ennustekuvat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{83310B53-87FB-406E-B32B-C5F152F2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2293BC8-5959-43B6-A8AD-D2BAD0151AD3}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{83310B53-87FB-406E-B32B-C5F152F2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65A5272A-4391-4B1F-937A-08D9105D76DE}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="504" yWindow="1812" windowWidth="22572" windowHeight="9552" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
+    <workbookView xWindow="555" yWindow="1035" windowWidth="17490" windowHeight="12480" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -298,13 +298,13 @@
             <v>-2.2996916322584049E-2</v>
           </cell>
           <cell r="K5">
-            <v>3.2993633980634485E-2</v>
+            <v>3.4745626705183774E-2</v>
           </cell>
           <cell r="L5">
-            <v>3.678111498754582E-2</v>
+            <v>4.7042944009109003E-3</v>
           </cell>
           <cell r="M5">
-            <v>3.946295964431748E-2</v>
+            <v>9.5776649327357528E-3</v>
           </cell>
         </row>
         <row r="6">
@@ -330,13 +330,13 @@
             <v>-6.6432372285692209E-2</v>
           </cell>
           <cell r="K6">
-            <v>4.9552154261910175E-2</v>
+            <v>5.3363858435903078E-2</v>
           </cell>
           <cell r="L6">
-            <v>4.4999999999999998E-2</v>
+            <v>3.5000000000000003E-2</v>
           </cell>
           <cell r="M6">
-            <v>0.09</v>
+            <v>3.5000000000000003E-2</v>
           </cell>
         </row>
         <row r="8">
@@ -362,13 +362,13 @@
             <v>-7.4729328560202535E-2</v>
           </cell>
           <cell r="K8">
-            <v>4.1674038949243375E-2</v>
+            <v>4.6569234580133845E-2</v>
           </cell>
           <cell r="L8">
-            <v>0.05</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
           <cell r="M8">
-            <v>9.5000000000000001E-2</v>
+            <v>3.5000000000000003E-2</v>
           </cell>
         </row>
         <row r="10">
@@ -394,13 +394,13 @@
             <v>-4.0951762995573016E-2</v>
           </cell>
           <cell r="K10">
-            <v>3.1849752070362447E-2</v>
+            <v>3.1412984833043556E-2</v>
           </cell>
           <cell r="L10">
-            <v>3.5000000000000003E-2</v>
+            <v>0.01</v>
           </cell>
           <cell r="M10">
-            <v>4.4999999999999998E-2</v>
+            <v>1.4999999999999999E-2</v>
           </cell>
         </row>
         <row r="11">
@@ -426,13 +426,13 @@
             <v>4.3184586424538374E-3</v>
           </cell>
           <cell r="K11">
-            <v>2.1664829106945893E-2</v>
+            <v>3.1734656376332326E-2</v>
           </cell>
           <cell r="L11">
+            <v>0.01</v>
+          </cell>
+          <cell r="M11">
             <v>0.03</v>
-          </cell>
-          <cell r="M11">
-            <v>1.9676675768428575E-2</v>
           </cell>
         </row>
         <row r="12">
@@ -458,13 +458,13 @@
             <v>-3.250913124127508E-3</v>
           </cell>
           <cell r="K12">
-            <v>2.0259770159046786E-2</v>
+            <v>1.2086794697158565E-2</v>
           </cell>
           <cell r="L12">
-            <v>3.1170391389761187E-2</v>
+            <v>8.7910106653121822E-3</v>
           </cell>
           <cell r="M12">
-            <v>4.0699253174808048E-2</v>
+            <v>-1.8035615641168956E-2</v>
           </cell>
         </row>
         <row r="13">
@@ -490,13 +490,13 @@
             <v>-2.9110233258088813E-2</v>
           </cell>
           <cell r="K13">
-            <v>4.5386292080406898E-2</v>
+            <v>4.5725357229353447E-2</v>
           </cell>
           <cell r="L13">
-            <v>4.4999999999999998E-2</v>
+            <v>1.4999999999999999E-2</v>
           </cell>
           <cell r="M13">
-            <v>4.4999999999999998E-2</v>
+            <v>-0.03</v>
           </cell>
         </row>
         <row r="14">
@@ -522,19 +522,19 @@
             <v>0.11187308085977477</v>
           </cell>
           <cell r="K14">
-            <v>-7.8431372549019662E-2</v>
+            <v>-0.12004050446469672</v>
           </cell>
           <cell r="L14">
-            <v>-0.03</v>
+            <v>-0.02</v>
           </cell>
           <cell r="M14">
-            <v>0.02</v>
+            <v>0.04</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -652,9 +652,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="20">
-          <cell r="C20">
-            <v>2647</v>
-          </cell>
           <cell r="D20">
             <v>2651</v>
           </cell>
@@ -680,13 +677,13 @@
             <v>2766</v>
           </cell>
           <cell r="L20">
-            <v>2821.32</v>
+            <v>2793.66</v>
+          </cell>
+          <cell r="M20">
+            <v>2807.6282999999994</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="C21">
-            <v>2426</v>
-          </cell>
           <cell r="D21">
             <v>2419</v>
           </cell>
@@ -712,13 +709,13 @@
             <v>2555</v>
           </cell>
           <cell r="L21">
-            <v>2606.1</v>
+            <v>2593.3249999999998</v>
+          </cell>
+          <cell r="M21">
+            <v>2606.2916249999994</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="C28">
-            <v>0.67702394526795895</v>
-          </cell>
           <cell r="D28">
             <v>0.67573761099971352</v>
           </cell>
@@ -744,13 +741,13 @@
             <v>0.72285630670178525</v>
           </cell>
           <cell r="L28">
-            <v>0.73891170512513316</v>
+            <v>0.73528958892353924</v>
+          </cell>
+          <cell r="M28">
+            <v>0.73896603686815698</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="C29">
-            <v>8.3490744238760864E-2</v>
-          </cell>
           <cell r="D29">
             <v>8.7514145605431914E-2</v>
           </cell>
@@ -776,17 +773,14 @@
             <v>7.6644974692697029E-2</v>
           </cell>
           <cell r="L29">
-            <v>7.628344179320326E-2</v>
+            <v>7.1710587544654703E-2</v>
+          </cell>
+          <cell r="M29">
+            <v>7.1710587544654703E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
-        <row r="71">
-          <cell r="C71">
-            <v>1522.6054692867942</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
@@ -808,13 +802,7 @@
       <sheetName val="Tunnit_tol"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2">
-            <v>204321</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="A2" t="str">
@@ -851,7 +839,7 @@
             <v>224316</v>
           </cell>
           <cell r="L2">
-            <v>231717</v>
+            <v>232110</v>
           </cell>
         </row>
         <row r="5">
@@ -889,7 +877,7 @@
             <v>84739</v>
           </cell>
           <cell r="L5">
-            <v>88938</v>
+            <v>89261</v>
           </cell>
         </row>
         <row r="8">
@@ -927,7 +915,7 @@
             <v>84777</v>
           </cell>
           <cell r="L8">
-            <v>88310</v>
+            <v>88725</v>
           </cell>
         </row>
         <row r="23">
@@ -965,7 +953,7 @@
             <v>171165</v>
           </cell>
           <cell r="L23">
-            <v>176054</v>
+            <v>176559</v>
           </cell>
         </row>
         <row r="31">
@@ -1003,7 +991,7 @@
             <v>54420</v>
           </cell>
           <cell r="L31">
-            <v>55599</v>
+            <v>56147</v>
           </cell>
         </row>
         <row r="32">
@@ -1041,7 +1029,7 @@
             <v>116767</v>
           </cell>
           <cell r="L32">
-            <v>120486</v>
+            <v>120435</v>
           </cell>
         </row>
         <row r="38">
@@ -1079,7 +1067,7 @@
             <v>52123</v>
           </cell>
           <cell r="L38">
-            <v>53179</v>
+            <v>52753</v>
           </cell>
         </row>
         <row r="48">
@@ -1117,7 +1105,7 @@
             <v>10863</v>
           </cell>
           <cell r="L48">
-            <v>10011</v>
+            <v>9559</v>
           </cell>
         </row>
         <row r="49">
@@ -1155,12 +1143,24 @@
             <v>41290</v>
           </cell>
           <cell r="L49">
-            <v>43164</v>
+            <v>43178</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="D5">
+            <v>2230.1999999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="D3">
+            <v>615.9</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
     </sheetDataSet>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7F8266-A289-4E7B-843E-FBDDAD3BAAD2}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="E1:N2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,15 +1574,15 @@
       </c>
       <c r="L2">
         <f>100* '[1]Huoltotase, iterointi'!K5</f>
-        <v>3.2993633980634485</v>
+        <v>3.4745626705183774</v>
       </c>
       <c r="M2">
         <f>100* '[1]Huoltotase, iterointi'!L5</f>
-        <v>3.678111498754582</v>
+        <v>0.47042944009109006</v>
       </c>
       <c r="N2">
         <f>100* '[1]Huoltotase, iterointi'!M5</f>
-        <v>3.9462959644317479</v>
+        <v>0.95776649327357533</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1628,15 +1628,15 @@
       </c>
       <c r="L3">
         <f>100* '[1]Huoltotase, iterointi'!K6</f>
-        <v>4.9552154261910175</v>
+        <v>5.3363858435903078</v>
       </c>
       <c r="M3">
         <f>100* '[1]Huoltotase, iterointi'!L6</f>
-        <v>4.5</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="N3">
         <f>100* '[1]Huoltotase, iterointi'!M6</f>
-        <v>9</v>
+        <v>3.5000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1682,15 +1682,15 @@
       </c>
       <c r="L4">
         <f>100* '[1]Huoltotase, iterointi'!K8</f>
-        <v>4.1674038949243375</v>
+        <v>4.6569234580133845</v>
       </c>
       <c r="M4">
         <f>100* '[1]Huoltotase, iterointi'!L8</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
         <f>100* '[1]Huoltotase, iterointi'!M8</f>
-        <v>9.5</v>
+        <v>3.5000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1736,15 +1736,15 @@
       </c>
       <c r="L5">
         <f>100* '[1]Huoltotase, iterointi'!K10</f>
-        <v>3.1849752070362447</v>
+        <v>3.1412984833043556</v>
       </c>
       <c r="M5">
         <f>100* '[1]Huoltotase, iterointi'!L10</f>
-        <v>3.5000000000000004</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f>100* '[1]Huoltotase, iterointi'!M10</f>
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1790,15 +1790,15 @@
       </c>
       <c r="L6">
         <f>100* '[1]Huoltotase, iterointi'!K11</f>
-        <v>2.1664829106945893</v>
+        <v>3.1734656376332326</v>
       </c>
       <c r="M6">
         <f>100* '[1]Huoltotase, iterointi'!L11</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f>100* '[1]Huoltotase, iterointi'!M11</f>
-        <v>1.9676675768428575</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1844,15 +1844,15 @@
       </c>
       <c r="L7">
         <f>100* '[1]Huoltotase, iterointi'!K12</f>
-        <v>2.0259770159046786</v>
+        <v>1.2086794697158565</v>
       </c>
       <c r="M7">
         <f>100* '[1]Huoltotase, iterointi'!L12</f>
-        <v>3.1170391389761187</v>
+        <v>0.87910106653121822</v>
       </c>
       <c r="N7">
         <f>100* '[1]Huoltotase, iterointi'!M12</f>
-        <v>4.0699253174808048</v>
+        <v>-1.8035615641168956</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1898,15 +1898,15 @@
       </c>
       <c r="L8">
         <f>100* '[1]Huoltotase, iterointi'!K13</f>
-        <v>4.5386292080406898</v>
+        <v>4.5725357229353447</v>
       </c>
       <c r="M8">
         <f>100* '[1]Huoltotase, iterointi'!L13</f>
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
         <f>100* '[1]Huoltotase, iterointi'!M13</f>
-        <v>4.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1952,15 +1952,15 @@
       </c>
       <c r="L9">
         <f>100* '[1]Huoltotase, iterointi'!K14</f>
-        <v>-7.8431372549019667</v>
+        <v>-12.004050446469671</v>
       </c>
       <c r="M9">
         <f>100* '[1]Huoltotase, iterointi'!L14</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N9">
         <f>100* '[1]Huoltotase, iterointi'!M14</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2103,44 +2103,44 @@
         <v>31</v>
       </c>
       <c r="E17">
-        <f>100*'[3]Syöttö Työllisyys'!C28</f>
-        <v>67.702394526795899</v>
-      </c>
-      <c r="F17">
         <f>100*'[3]Syöttö Työllisyys'!D28</f>
         <v>67.57376109997135</v>
       </c>
-      <c r="G17">
+      <c r="F17">
         <f>100*'[3]Syöttö Työllisyys'!E28</f>
         <v>67.146144994246256</v>
       </c>
-      <c r="H17">
+      <c r="G17">
         <f>100*'[3]Syöttö Työllisyys'!F28</f>
         <v>67.860236788911337</v>
       </c>
-      <c r="I17">
+      <c r="H17">
         <f>100*'[3]Syöttö Työllisyys'!G28</f>
         <v>68.733700376702402</v>
       </c>
-      <c r="J17">
+      <c r="I17">
         <f>100*'[3]Syöttö Työllisyys'!H28</f>
         <v>70.747310264611812</v>
       </c>
-      <c r="K17">
+      <c r="J17">
         <f>100*'[3]Syöttö Työllisyys'!I28</f>
         <v>71.616102683780625</v>
       </c>
-      <c r="L17">
+      <c r="K17">
         <f>100*'[3]Syöttö Työllisyys'!J28</f>
         <v>70.739549839228303</v>
       </c>
-      <c r="M17">
+      <c r="L17">
         <f>100*'[3]Syöttö Työllisyys'!K28</f>
         <v>72.28563067017852</v>
       </c>
+      <c r="M17">
+        <f>100*'[3]Syöttö Työllisyys'!L28</f>
+        <v>73.528958892353927</v>
+      </c>
       <c r="N17">
-        <f>100*'[3]Syöttö Työllisyys'!L28</f>
-        <v>73.891170512513312</v>
+        <f>100*'[3]Syöttö Työllisyys'!M28</f>
+        <v>73.896603686815695</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2154,44 +2154,44 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <f>100*'[3]Syöttö Työllisyys'!C29</f>
-        <v>8.3490744238760861</v>
-      </c>
-      <c r="F18">
         <f>100*'[3]Syöttö Työllisyys'!D29</f>
         <v>8.751414560543191</v>
       </c>
-      <c r="G18">
+      <c r="F18">
         <f>100*'[3]Syöttö Työllisyys'!E29</f>
         <v>9.42684766214178</v>
       </c>
-      <c r="H18">
+      <c r="G18">
         <f>100*'[3]Syöttö Työllisyys'!F29</f>
         <v>8.8955898982284207</v>
       </c>
-      <c r="I18">
+      <c r="H18">
         <f>100*'[3]Syöttö Työllisyys'!G29</f>
         <v>8.7135377711293938</v>
       </c>
-      <c r="J18">
+      <c r="I18">
         <f>100*'[3]Syöttö Työllisyys'!H29</f>
         <v>7.4566260612772242</v>
       </c>
-      <c r="K18">
+      <c r="J18">
         <f>100*'[3]Syöttö Työllisyys'!I29</f>
         <v>6.7721751932278256</v>
       </c>
-      <c r="L18">
+      <c r="K18">
         <f>100*'[3]Syöttö Työllisyys'!J29</f>
         <v>7.7292899408284033</v>
       </c>
-      <c r="M18">
+      <c r="L18">
         <f>100*'[3]Syöttö Työllisyys'!K29</f>
         <v>7.664497469269703</v>
       </c>
+      <c r="M18">
+        <f>100*'[3]Syöttö Työllisyys'!L29</f>
+        <v>7.17105875446547</v>
+      </c>
       <c r="N18">
-        <f>100*'[3]Syöttö Työllisyys'!L29</f>
-        <v>7.6283441793203259</v>
+        <f>100*'[3]Syöttö Työllisyys'!M29</f>
+        <v>7.17105875446547</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2205,44 +2205,44 @@
         <v>34</v>
       </c>
       <c r="E19" s="6">
-        <f>'[3]Syöttö Työllisyys'!C20</f>
-        <v>2647</v>
-      </c>
-      <c r="F19" s="6">
         <f>'[3]Syöttö Työllisyys'!D20</f>
         <v>2651</v>
       </c>
-      <c r="G19" s="6">
+      <c r="F19" s="6">
         <f>'[3]Syöttö Työllisyys'!E20</f>
         <v>2652</v>
       </c>
-      <c r="H19" s="6">
+      <c r="G19" s="6">
         <f>'[3]Syöttö Työllisyys'!F20</f>
         <v>2653</v>
       </c>
-      <c r="I19" s="6">
+      <c r="H19" s="6">
         <f>'[3]Syöttö Työllisyys'!G20</f>
         <v>2674</v>
       </c>
-      <c r="J19" s="6">
+      <c r="I19" s="6">
         <f>'[3]Syöttö Työllisyys'!H20</f>
         <v>2709</v>
       </c>
-      <c r="K19" s="6">
+      <c r="J19" s="6">
         <f>'[3]Syöttö Työllisyys'!I20</f>
         <v>2717</v>
       </c>
-      <c r="L19" s="6">
+      <c r="K19" s="6">
         <f>'[3]Syöttö Työllisyys'!J20</f>
         <v>2704</v>
       </c>
-      <c r="M19" s="6">
+      <c r="L19" s="6">
         <f>'[3]Syöttö Työllisyys'!K20</f>
         <v>2766</v>
       </c>
+      <c r="M19" s="6">
+        <f>'[3]Syöttö Työllisyys'!L20</f>
+        <v>2793.66</v>
+      </c>
       <c r="N19" s="6">
-        <f>'[3]Syöttö Työllisyys'!L20</f>
-        <v>2821.32</v>
+        <f>'[3]Syöttö Työllisyys'!M20</f>
+        <v>2807.6282999999994</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2256,44 +2256,44 @@
         <v>35</v>
       </c>
       <c r="E20" s="6">
-        <f>'[3]Syöttö Työllisyys'!C21</f>
-        <v>2426</v>
-      </c>
-      <c r="F20" s="6">
         <f>'[3]Syöttö Työllisyys'!D21</f>
         <v>2419</v>
       </c>
-      <c r="G20" s="6">
+      <c r="F20" s="6">
         <f>'[3]Syöttö Työllisyys'!E21</f>
         <v>2402</v>
       </c>
-      <c r="H20" s="6">
+      <c r="G20" s="6">
         <f>'[3]Syöttö Työllisyys'!F21</f>
         <v>2417</v>
       </c>
-      <c r="I20" s="6">
+      <c r="H20" s="6">
         <f>'[3]Syöttö Työllisyys'!G21</f>
         <v>2441</v>
       </c>
-      <c r="J20" s="6">
+      <c r="I20" s="6">
         <f>'[3]Syöttö Työllisyys'!H21</f>
         <v>2507</v>
       </c>
-      <c r="K20" s="6">
+      <c r="J20" s="6">
         <f>'[3]Syöttö Työllisyys'!I21</f>
         <v>2533</v>
       </c>
-      <c r="L20" s="6">
+      <c r="K20" s="6">
         <f>'[3]Syöttö Työllisyys'!J21</f>
         <v>2495</v>
       </c>
-      <c r="M20" s="6">
+      <c r="L20" s="6">
         <f>'[3]Syöttö Työllisyys'!K21</f>
         <v>2555</v>
       </c>
+      <c r="M20" s="6">
+        <f>'[3]Syöttö Työllisyys'!L21</f>
+        <v>2593.3249999999998</v>
+      </c>
       <c r="N20" s="6">
-        <f>'[3]Syöttö Työllisyys'!L21</f>
-        <v>2606.1</v>
+        <f>'[3]Syöttö Työllisyys'!M21</f>
+        <v>2606.2916249999994</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="O69" s="1">
         <f>[4]Huoltotase_vol!L2</f>
-        <v>231717</v>
+        <v>232110</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="O70" s="1">
         <f>[4]Huoltotase_vol!L5</f>
-        <v>88938</v>
+        <v>89261</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="O72" s="1">
         <f>[4]Huoltotase_vol!L8</f>
-        <v>88310</v>
+        <v>88725</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="O73" s="1">
         <f>[4]Huoltotase_vol!L23</f>
-        <v>176054</v>
+        <v>176559</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O74" s="1">
         <f>[4]Huoltotase_vol!L32</f>
-        <v>120486</v>
+        <v>120435</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="O75" s="1">
         <f>[4]Huoltotase_vol!L31</f>
-        <v>55599</v>
+        <v>56147</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="O76" s="1">
         <f>[4]Huoltotase_vol!L38</f>
-        <v>53179</v>
+        <v>52753</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="O77" s="1">
         <f>[4]Huoltotase_vol!L49</f>
-        <v>43164</v>
+        <v>43178</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="O78" s="1">
         <f>[4]Huoltotase_vol!L48</f>
-        <v>10011</v>
+        <v>9559</v>
       </c>
     </row>
   </sheetData>

--- a/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
+++ b/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry-my.sharepoint.com/personal/janne_huovari_ptt_fi/Documents/Rpkg/pttrobo/inst/ennustekuvat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{83310B53-87FB-406E-B32B-C5F152F2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65A5272A-4391-4B1F-937A-08D9105D76DE}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{83310B53-87FB-406E-B32B-C5F152F2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D98803-204F-487A-9D23-C58B2721FB69}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="1035" windowWidth="17490" windowHeight="12480" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>BKT</t>
   </si>
@@ -151,13 +152,28 @@
   </si>
   <si>
     <t>trendi</t>
+  </si>
+  <si>
+    <t>Inflaatio</t>
+  </si>
+  <si>
+    <t>Nettoluotonanto Valtio</t>
+  </si>
+  <si>
+    <t>Nettoluotonanto Paikallishallinto</t>
+  </si>
+  <si>
+    <t>Nettoluotonanto Sosiaaliturvarahastot</t>
+  </si>
+  <si>
+    <t>Nettoluotonanto Jukinen sektori</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,18 +187,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="57"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,10 +209,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,7 +536,7 @@
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -794,375 +796,222 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Huoltotase_cp"/>
-      <sheetName val="Huoltotase_vol"/>
-      <sheetName val="Työlliset"/>
-      <sheetName val="Tunnit"/>
-      <sheetName val="Työlliset_tol"/>
-      <sheetName val="Tunnit_tol"/>
+      <sheetName val="Merkinnät"/>
+      <sheetName val="Syöttö Inflaatio"/>
+      <sheetName val="Pääerät kk "/>
+      <sheetName val="Kaavio22"/>
+      <sheetName val="Kaavio23"/>
+      <sheetName val="Kaavio24"/>
+      <sheetName val="KV"/>
+      <sheetName val="Kaavio25"/>
+      <sheetName val="Kaavio26"/>
+      <sheetName val="Painot"/>
+      <sheetName val="Apu Inflaatio 2a kustpaine"/>
+      <sheetName val="Esimerkki perheet"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>vuosisumma</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>B1GMH Bruttokansantuote markkinahintaan; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-          </cell>
-          <cell r="D2">
-            <v>211012</v>
-          </cell>
-          <cell r="E2">
-            <v>210242</v>
-          </cell>
-          <cell r="F2">
-            <v>211385</v>
-          </cell>
-          <cell r="G2">
-            <v>217328</v>
-          </cell>
-          <cell r="H2">
-            <v>224266</v>
-          </cell>
-          <cell r="I2">
-            <v>226827</v>
-          </cell>
-          <cell r="J2">
-            <v>229596</v>
-          </cell>
-          <cell r="K2">
-            <v>224316</v>
-          </cell>
-          <cell r="L2">
-            <v>232110</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>vuosisumma</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>P7R Tavaroiden ja palvelujen tuonti, tulona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-          </cell>
-          <cell r="D5">
-            <v>75258</v>
-          </cell>
-          <cell r="E5">
-            <v>74583</v>
-          </cell>
-          <cell r="F5">
-            <v>76047</v>
-          </cell>
-          <cell r="G5">
-            <v>80398</v>
-          </cell>
-          <cell r="H5">
-            <v>83866</v>
-          </cell>
-          <cell r="I5">
-            <v>88673</v>
-          </cell>
-          <cell r="J5">
-            <v>90769</v>
-          </cell>
-          <cell r="K5">
-            <v>84739</v>
-          </cell>
-          <cell r="L5">
-            <v>89261</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>vuosisumma</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>P6K Tavaroiden ja palvelujen vienti, menona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-          </cell>
-          <cell r="D8">
-            <v>76037</v>
-          </cell>
-          <cell r="E8">
-            <v>74553</v>
-          </cell>
-          <cell r="F8">
-            <v>74845</v>
-          </cell>
-          <cell r="G8">
-            <v>77759</v>
-          </cell>
-          <cell r="H8">
-            <v>84619</v>
-          </cell>
-          <cell r="I8">
-            <v>85891</v>
-          </cell>
-          <cell r="J8">
-            <v>91624</v>
-          </cell>
-          <cell r="K8">
-            <v>84777</v>
-          </cell>
-          <cell r="L8">
-            <v>88725</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>vuosisumma</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>P3K Kulutusmenot, menona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-          </cell>
-          <cell r="D23">
-            <v>163703</v>
-          </cell>
-          <cell r="E23">
-            <v>164220</v>
-          </cell>
-          <cell r="F23">
-            <v>166689</v>
-          </cell>
-          <cell r="G23">
-            <v>169927</v>
-          </cell>
-          <cell r="H23">
-            <v>170931</v>
-          </cell>
-          <cell r="I23">
-            <v>173984</v>
-          </cell>
-          <cell r="J23">
-            <v>175930</v>
-          </cell>
-          <cell r="K23">
-            <v>171165</v>
-          </cell>
-          <cell r="L23">
-            <v>176559</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>vuosisumma</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>P3KS13 Julkiset kulutusmenot, menona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-          </cell>
-          <cell r="D31">
-            <v>51064</v>
-          </cell>
-          <cell r="E31">
-            <v>50898</v>
-          </cell>
-          <cell r="F31">
-            <v>51545</v>
-          </cell>
-          <cell r="G31">
-            <v>51986</v>
-          </cell>
-          <cell r="H31">
-            <v>52095</v>
-          </cell>
-          <cell r="I31">
-            <v>53115</v>
-          </cell>
-          <cell r="J31">
-            <v>54186</v>
-          </cell>
-          <cell r="K31">
-            <v>54420</v>
-          </cell>
-          <cell r="L31">
-            <v>56147</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>vuosisumma</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>P3KS14_S15 Yksityiset kulutusmenot, menona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-          </cell>
-          <cell r="D32">
-            <v>112640</v>
-          </cell>
-          <cell r="E32">
-            <v>113323</v>
-          </cell>
-          <cell r="F32">
-            <v>115144</v>
-          </cell>
-          <cell r="G32">
-            <v>117941</v>
-          </cell>
-          <cell r="H32">
-            <v>118833</v>
-          </cell>
-          <cell r="I32">
-            <v>120868</v>
-          </cell>
-          <cell r="J32">
-            <v>121753</v>
-          </cell>
-          <cell r="K32">
-            <v>116767</v>
-          </cell>
-          <cell r="L32">
-            <v>120435</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>vuosisumma</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>P51K Kiinteän pääoman bruttomuodostus, menona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-          </cell>
-          <cell r="D38">
-            <v>45502</v>
-          </cell>
-          <cell r="E38">
-            <v>44668</v>
-          </cell>
-          <cell r="F38">
-            <v>44877</v>
-          </cell>
-          <cell r="G38">
-            <v>48909</v>
-          </cell>
-          <cell r="H38">
-            <v>51237</v>
-          </cell>
-          <cell r="I38">
-            <v>53080</v>
-          </cell>
-          <cell r="J38">
-            <v>52293</v>
-          </cell>
-          <cell r="K38">
-            <v>52123</v>
-          </cell>
-          <cell r="L38">
-            <v>52753</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>vuosisumma</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>P51KS13 Julkiset investoinnit; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-          </cell>
-          <cell r="D48">
-            <v>8578</v>
-          </cell>
-          <cell r="E48">
-            <v>8672</v>
-          </cell>
-          <cell r="F48">
-            <v>7908</v>
-          </cell>
-          <cell r="G48">
-            <v>8967</v>
-          </cell>
-          <cell r="H48">
-            <v>9009</v>
-          </cell>
-          <cell r="I48">
-            <v>9545</v>
-          </cell>
-          <cell r="J48">
-            <v>9770</v>
-          </cell>
-          <cell r="K48">
-            <v>10863</v>
-          </cell>
-          <cell r="L48">
-            <v>9559</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>vuosisumma</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>P51KXS13 Yksityiset investoinnit; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-          </cell>
-          <cell r="D49">
-            <v>36920</v>
-          </cell>
-          <cell r="E49">
-            <v>35991</v>
-          </cell>
-          <cell r="F49">
-            <v>36969</v>
-          </cell>
-          <cell r="G49">
-            <v>39942</v>
-          </cell>
-          <cell r="H49">
-            <v>42226</v>
-          </cell>
-          <cell r="I49">
-            <v>43534</v>
-          </cell>
-          <cell r="J49">
-            <v>42528</v>
-          </cell>
-          <cell r="K49">
-            <v>41290</v>
-          </cell>
-          <cell r="L49">
-            <v>43178</v>
+        <row r="4">
+          <cell r="D4">
+            <v>1.04E-2</v>
+          </cell>
+          <cell r="E4">
+            <v>-2.0999999999999999E-3</v>
+          </cell>
+          <cell r="F4">
+            <v>3.4999999999999996E-3</v>
+          </cell>
+          <cell r="G4">
+            <v>7.4000000000000003E-3</v>
+          </cell>
+          <cell r="H4">
+            <v>1.0800000000000001E-2</v>
+          </cell>
+          <cell r="I4">
+            <v>1.0200000000000001E-2</v>
+          </cell>
+          <cell r="J4">
+            <v>2.8999999999999998E-3</v>
+          </cell>
+          <cell r="K4">
+            <v>2.1899999999999999E-2</v>
+          </cell>
+          <cell r="L4">
+            <v>4.4935999999999955E-2</v>
+          </cell>
+          <cell r="M4">
+            <v>1.9880199999999983E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Merkinnät"/>
+      <sheetName val="Ennuste kevät 2016"/>
+      <sheetName val="Syöttö Julk.tasapaino"/>
+      <sheetName val="Syöttö Veroaste"/>
+      <sheetName val="Sosiaaliturvarahastot"/>
+      <sheetName val="Valtionhallinto KT"/>
+      <sheetName val="Paikallishallinto KT"/>
+      <sheetName val="Välilliset verot"/>
+      <sheetName val="Maksut"/>
+      <sheetName val="Välittömät verot"/>
+      <sheetName val="Taul1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
+        <row r="4">
+          <cell r="D4">
+            <v>-3.7366419039425412E-2</v>
+          </cell>
+          <cell r="E4">
+            <v>-2.9836554154741349E-2</v>
+          </cell>
+          <cell r="F4">
+            <v>-2.626449305344845E-2</v>
+          </cell>
+          <cell r="G4">
+            <v>-1.7847910526246017E-2</v>
+          </cell>
+          <cell r="H4">
+            <v>-1.2579882467832851E-2</v>
+          </cell>
+          <cell r="I4">
+            <v>-1.0823341060320532E-2</v>
+          </cell>
+          <cell r="J4">
+            <v>-5.4996953717515076E-2</v>
+          </cell>
+          <cell r="K4">
+            <v>-3.2039978808701082E-2</v>
+          </cell>
+          <cell r="L4">
+            <v>-1.4992617183975949E-2</v>
+          </cell>
+          <cell r="M4">
+            <v>9.5333664134984713E-3</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="D5">
-            <v>2230.1999999999998</v>
+            <v>-6.9938181800606103E-3</v>
+          </cell>
+          <cell r="E5">
+            <v>-7.1622868226222294E-3</v>
+          </cell>
+          <cell r="F5">
+            <v>-6.0730606202705067E-3</v>
+          </cell>
+          <cell r="G5">
+            <v>-3.9681662917972083E-3</v>
+          </cell>
+          <cell r="H5">
+            <v>-1.9360254938578306E-3</v>
+          </cell>
+          <cell r="I5">
+            <v>-8.5094141387188765E-3</v>
+          </cell>
+          <cell r="J5">
+            <v>-1.2563289144729931E-2</v>
+          </cell>
+          <cell r="K5">
+            <v>1.8186562502471002E-4</v>
+          </cell>
+          <cell r="L5">
+            <v>-4.1449331491658412E-4</v>
+          </cell>
+          <cell r="M5">
+            <v>-1.0002699299455775E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1.8530959849586994E-2</v>
+          </cell>
+          <cell r="E6">
+            <v>1.4494879012228871E-2</v>
+          </cell>
+          <cell r="F6">
+            <v>1.1497899024448551E-2</v>
+          </cell>
+          <cell r="G6">
+            <v>1.2889912108209863E-2</v>
+          </cell>
+          <cell r="H6">
+            <v>1.2896842393818424E-2</v>
+          </cell>
+          <cell r="I6">
+            <v>1.2449343761986559E-2</v>
+          </cell>
+          <cell r="J6">
+            <v>1.3991890585936679E-2</v>
+          </cell>
+          <cell r="K6">
+            <v>4.1512805712162065E-4</v>
+          </cell>
+          <cell r="L6">
+            <v>7.6856684955630304E-3</v>
+          </cell>
+          <cell r="M6">
+            <v>1.2101434328948026E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>-2.5829277369899033E-2</v>
+          </cell>
+          <cell r="E7">
+            <v>-2.2503961965134708E-2</v>
+          </cell>
+          <cell r="F7">
+            <v>-2.0839654649270404E-2</v>
+          </cell>
+          <cell r="G7">
+            <v>-8.9261647098333643E-3</v>
+          </cell>
+          <cell r="H7">
+            <v>-1.6190655678722566E-3</v>
+          </cell>
+          <cell r="I7">
+            <v>-6.8834114370528495E-3</v>
+          </cell>
+          <cell r="J7">
+            <v>-5.3568352276308323E-2</v>
+          </cell>
+          <cell r="K7">
+            <v>-3.1442985126554752E-2</v>
+          </cell>
+          <cell r="L7">
+            <v>-7.7214420033295027E-3</v>
+          </cell>
+          <cell r="M7">
+            <v>1.1632101442990725E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="D3">
-            <v>615.9</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1465,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7F8266-A289-4E7B-843E-FBDDAD3BAAD2}">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:N20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,27 +1813,27 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="2">
         <f>[2]Syöttö!L4</f>
         <v>0</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <f>[2]Syöttö!M4</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="2">
         <f>[2]Syöttö!L5</f>
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <f>[2]Syöttö!M5</f>
         <v>-2E-3</v>
       </c>
@@ -1996,98 +1845,98 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <f>[2]Syöttö!D6</f>
         <v>99.023333333333298</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <f>[2]Syöttö!E6</f>
         <v>52.353333333333303</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <f>[2]Syöttö!F6</f>
         <v>43.548333333333296</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <f>[2]Syöttö!G6</f>
         <v>54.247500000000002</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <f>[2]Syöttö!H6</f>
         <v>71.060833333333306</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <f>[2]Syöttö!I6</f>
         <v>64.358333333333306</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <f>[2]Syöttö!J6</f>
         <v>41.759166666666701</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <f>[2]Syöttö!K6</f>
         <v>70.665833333333296</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="2">
         <f>[2]Syöttö!L6</f>
         <v>90</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <f>[2]Syöttö!M6</f>
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="2">
         <f>[2]Syöttö!L7</f>
         <v>1.18</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <f>[2]Syöttö!M7</f>
         <v>1.18</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="2">
         <f>[2]Syöttö!L8</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <f>[2]Syöttö!M8</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="2">
         <f>[2]Syöttö!L9</f>
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <f>[2]Syöttö!M9</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="2">
         <f>[2]Syöttö!L10</f>
         <v>0</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <f>[2]Syöttö!M10</f>
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2099,7 +1948,7 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E17">
@@ -2150,7 +1999,7 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E18">
@@ -2201,46 +2050,46 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <f>'[3]Syöttö Työllisyys'!D20</f>
         <v>2651</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <f>'[3]Syöttö Työllisyys'!E20</f>
         <v>2652</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <f>'[3]Syöttö Työllisyys'!F20</f>
         <v>2653</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <f>'[3]Syöttö Työllisyys'!G20</f>
         <v>2674</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
         <f>'[3]Syöttö Työllisyys'!H20</f>
         <v>2709</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="4">
         <f>'[3]Syöttö Työllisyys'!I20</f>
         <v>2717</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="4">
         <f>'[3]Syöttö Työllisyys'!J20</f>
         <v>2704</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="4">
         <f>'[3]Syöttö Työllisyys'!K20</f>
         <v>2766</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="4">
         <f>'[3]Syöttö Työllisyys'!L20</f>
         <v>2793.66</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="4">
         <f>'[3]Syöttö Työllisyys'!M20</f>
         <v>2807.6282999999994</v>
       </c>
@@ -2252,596 +2101,273 @@
       <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <f>'[3]Syöttö Työllisyys'!D21</f>
         <v>2419</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <f>'[3]Syöttö Työllisyys'!E21</f>
         <v>2402</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <f>'[3]Syöttö Työllisyys'!F21</f>
         <v>2417</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <f>'[3]Syöttö Työllisyys'!G21</f>
         <v>2441</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <f>'[3]Syöttö Työllisyys'!H21</f>
         <v>2507</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="4">
         <f>'[3]Syöttö Työllisyys'!I21</f>
         <v>2533</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="4">
         <f>'[3]Syöttö Työllisyys'!J21</f>
         <v>2495</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="4">
         <f>'[3]Syöttö Työllisyys'!K21</f>
         <v>2555</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="4">
         <f>'[3]Syöttö Työllisyys'!L21</f>
         <v>2593.3249999999998</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="4">
         <f>'[3]Syöttö Työllisyys'!M21</f>
         <v>2606.2916249999994</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1" t="str">
-        <f>[4]Huoltotase_vol!A2</f>
-        <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-      </c>
-      <c r="D69" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E69" s="1" t="str">
-        <f>[4]Huoltotase_vol!B2</f>
-        <v>vuosisumma</v>
-      </c>
-      <c r="F69" s="1" t="str">
-        <f>[4]Huoltotase_vol!C2</f>
-        <v>B1GMH Bruttokansantuote markkinahintaan; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-      </c>
-      <c r="G69" s="1">
-        <f>[4]Huoltotase_vol!D2</f>
-        <v>211012</v>
-      </c>
-      <c r="H69" s="1">
-        <f>[4]Huoltotase_vol!E2</f>
-        <v>210242</v>
-      </c>
-      <c r="I69" s="1">
-        <f>[4]Huoltotase_vol!F2</f>
-        <v>211385</v>
-      </c>
-      <c r="J69" s="1">
-        <f>[4]Huoltotase_vol!G2</f>
-        <v>217328</v>
-      </c>
-      <c r="K69" s="1">
-        <f>[4]Huoltotase_vol!H2</f>
-        <v>224266</v>
-      </c>
-      <c r="L69" s="1">
-        <f>[4]Huoltotase_vol!I2</f>
-        <v>226827</v>
-      </c>
-      <c r="M69" s="1">
-        <f>[4]Huoltotase_vol!J2</f>
-        <v>229596</v>
-      </c>
-      <c r="N69" s="1">
-        <f>[4]Huoltotase_vol!K2</f>
-        <v>224316</v>
-      </c>
-      <c r="O69" s="1">
-        <f>[4]Huoltotase_vol!L2</f>
-        <v>232110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1" t="str">
-        <f>[4]Huoltotase_vol!A5</f>
-        <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-      </c>
-      <c r="D70" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E70" s="1" t="str">
-        <f>[4]Huoltotase_vol!B5</f>
-        <v>vuosisumma</v>
-      </c>
-      <c r="F70" s="1" t="str">
-        <f>[4]Huoltotase_vol!C5</f>
-        <v>P7R Tavaroiden ja palvelujen tuonti, tulona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-      </c>
-      <c r="G70" s="1">
-        <f>[4]Huoltotase_vol!D5</f>
-        <v>75258</v>
-      </c>
-      <c r="H70" s="1">
-        <f>[4]Huoltotase_vol!E5</f>
-        <v>74583</v>
-      </c>
-      <c r="I70" s="1">
-        <f>[4]Huoltotase_vol!F5</f>
-        <v>76047</v>
-      </c>
-      <c r="J70" s="1">
-        <f>[4]Huoltotase_vol!G5</f>
-        <v>80398</v>
-      </c>
-      <c r="K70" s="1">
-        <f>[4]Huoltotase_vol!H5</f>
-        <v>83866</v>
-      </c>
-      <c r="L70" s="1">
-        <f>[4]Huoltotase_vol!I5</f>
-        <v>88673</v>
-      </c>
-      <c r="M70" s="1">
-        <f>[4]Huoltotase_vol!J5</f>
-        <v>90769</v>
-      </c>
-      <c r="N70" s="1">
-        <f>[4]Huoltotase_vol!K5</f>
-        <v>84739</v>
-      </c>
-      <c r="O70" s="1">
-        <f>[4]Huoltotase_vol!L5</f>
-        <v>89261</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1" t="str">
-        <f>[4]Huoltotase_vol!A8</f>
-        <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-      </c>
-      <c r="D72" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E72" s="1" t="str">
-        <f>[4]Huoltotase_vol!B8</f>
-        <v>vuosisumma</v>
-      </c>
-      <c r="F72" s="1" t="str">
-        <f>[4]Huoltotase_vol!C8</f>
-        <v>P6K Tavaroiden ja palvelujen vienti, menona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-      </c>
-      <c r="G72" s="1">
-        <f>[4]Huoltotase_vol!D8</f>
-        <v>76037</v>
-      </c>
-      <c r="H72" s="1">
-        <f>[4]Huoltotase_vol!E8</f>
-        <v>74553</v>
-      </c>
-      <c r="I72" s="1">
-        <f>[4]Huoltotase_vol!F8</f>
-        <v>74845</v>
-      </c>
-      <c r="J72" s="1">
-        <f>[4]Huoltotase_vol!G8</f>
-        <v>77759</v>
-      </c>
-      <c r="K72" s="1">
-        <f>[4]Huoltotase_vol!H8</f>
-        <v>84619</v>
-      </c>
-      <c r="L72" s="1">
-        <f>[4]Huoltotase_vol!I8</f>
-        <v>85891</v>
-      </c>
-      <c r="M72" s="1">
-        <f>[4]Huoltotase_vol!J8</f>
-        <v>91624</v>
-      </c>
-      <c r="N72" s="1">
-        <f>[4]Huoltotase_vol!K8</f>
-        <v>84777</v>
-      </c>
-      <c r="O72" s="1">
-        <f>[4]Huoltotase_vol!L8</f>
-        <v>88725</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1" t="str">
-        <f>[4]Huoltotase_vol!A23</f>
-        <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-      </c>
-      <c r="D73" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E73" s="1" t="str">
-        <f>[4]Huoltotase_vol!B23</f>
-        <v>vuosisumma</v>
-      </c>
-      <c r="F73" s="1" t="str">
-        <f>[4]Huoltotase_vol!C23</f>
-        <v>P3K Kulutusmenot, menona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-      </c>
-      <c r="G73" s="1">
-        <f>[4]Huoltotase_vol!D23</f>
-        <v>163703</v>
-      </c>
-      <c r="H73" s="1">
-        <f>[4]Huoltotase_vol!E23</f>
-        <v>164220</v>
-      </c>
-      <c r="I73" s="1">
-        <f>[4]Huoltotase_vol!F23</f>
-        <v>166689</v>
-      </c>
-      <c r="J73" s="1">
-        <f>[4]Huoltotase_vol!G23</f>
-        <v>169927</v>
-      </c>
-      <c r="K73" s="1">
-        <f>[4]Huoltotase_vol!H23</f>
-        <v>170931</v>
-      </c>
-      <c r="L73" s="1">
-        <f>[4]Huoltotase_vol!I23</f>
-        <v>173984</v>
-      </c>
-      <c r="M73" s="1">
-        <f>[4]Huoltotase_vol!J23</f>
-        <v>175930</v>
-      </c>
-      <c r="N73" s="1">
-        <f>[4]Huoltotase_vol!K23</f>
-        <v>171165</v>
-      </c>
-      <c r="O73" s="1">
-        <f>[4]Huoltotase_vol!L23</f>
-        <v>176559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1" t="str">
-        <f>[4]Huoltotase_vol!A32</f>
-        <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-      </c>
-      <c r="D74" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E74" s="1" t="str">
-        <f>[4]Huoltotase_vol!B32</f>
-        <v>vuosisumma</v>
-      </c>
-      <c r="F74" s="1" t="str">
-        <f>[4]Huoltotase_vol!C32</f>
-        <v>P3KS14_S15 Yksityiset kulutusmenot, menona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-      </c>
-      <c r="G74" s="1">
-        <f>[4]Huoltotase_vol!D32</f>
-        <v>112640</v>
-      </c>
-      <c r="H74" s="1">
-        <f>[4]Huoltotase_vol!E32</f>
-        <v>113323</v>
-      </c>
-      <c r="I74" s="1">
-        <f>[4]Huoltotase_vol!F32</f>
-        <v>115144</v>
-      </c>
-      <c r="J74" s="1">
-        <f>[4]Huoltotase_vol!G32</f>
-        <v>117941</v>
-      </c>
-      <c r="K74" s="1">
-        <f>[4]Huoltotase_vol!H32</f>
-        <v>118833</v>
-      </c>
-      <c r="L74" s="1">
-        <f>[4]Huoltotase_vol!I32</f>
-        <v>120868</v>
-      </c>
-      <c r="M74" s="1">
-        <f>[4]Huoltotase_vol!J32</f>
-        <v>121753</v>
-      </c>
-      <c r="N74" s="1">
-        <f>[4]Huoltotase_vol!K32</f>
-        <v>116767</v>
-      </c>
-      <c r="O74" s="1">
-        <f>[4]Huoltotase_vol!L32</f>
-        <v>120435</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1" t="str">
-        <f>[4]Huoltotase_vol!A31</f>
-        <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-      </c>
-      <c r="D75" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E75" s="1" t="str">
-        <f>[4]Huoltotase_vol!B31</f>
-        <v>vuosisumma</v>
-      </c>
-      <c r="F75" s="1" t="str">
-        <f>[4]Huoltotase_vol!C31</f>
-        <v>P3KS13 Julkiset kulutusmenot, menona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-      </c>
-      <c r="G75" s="1">
-        <f>[4]Huoltotase_vol!D31</f>
-        <v>51064</v>
-      </c>
-      <c r="H75" s="1">
-        <f>[4]Huoltotase_vol!E31</f>
-        <v>50898</v>
-      </c>
-      <c r="I75" s="1">
-        <f>[4]Huoltotase_vol!F31</f>
-        <v>51545</v>
-      </c>
-      <c r="J75" s="1">
-        <f>[4]Huoltotase_vol!G31</f>
-        <v>51986</v>
-      </c>
-      <c r="K75" s="1">
-        <f>[4]Huoltotase_vol!H31</f>
-        <v>52095</v>
-      </c>
-      <c r="L75" s="1">
-        <f>[4]Huoltotase_vol!I31</f>
-        <v>53115</v>
-      </c>
-      <c r="M75" s="1">
-        <f>[4]Huoltotase_vol!J31</f>
-        <v>54186</v>
-      </c>
-      <c r="N75" s="1">
-        <f>[4]Huoltotase_vol!K31</f>
-        <v>54420</v>
-      </c>
-      <c r="O75" s="1">
-        <f>[4]Huoltotase_vol!L31</f>
-        <v>56147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="str">
-        <f>[4]Huoltotase_vol!A38</f>
-        <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-      </c>
-      <c r="D76" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E76" s="1" t="str">
-        <f>[4]Huoltotase_vol!B38</f>
-        <v>vuosisumma</v>
-      </c>
-      <c r="F76" s="1" t="str">
-        <f>[4]Huoltotase_vol!C38</f>
-        <v>P51K Kiinteän pääoman bruttomuodostus, menona; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-      </c>
-      <c r="G76" s="1">
-        <f>[4]Huoltotase_vol!D38</f>
-        <v>45502</v>
-      </c>
-      <c r="H76" s="1">
-        <f>[4]Huoltotase_vol!E38</f>
-        <v>44668</v>
-      </c>
-      <c r="I76" s="1">
-        <f>[4]Huoltotase_vol!F38</f>
-        <v>44877</v>
-      </c>
-      <c r="J76" s="1">
-        <f>[4]Huoltotase_vol!G38</f>
-        <v>48909</v>
-      </c>
-      <c r="K76" s="1">
-        <f>[4]Huoltotase_vol!H38</f>
-        <v>51237</v>
-      </c>
-      <c r="L76" s="1">
-        <f>[4]Huoltotase_vol!I38</f>
-        <v>53080</v>
-      </c>
-      <c r="M76" s="1">
-        <f>[4]Huoltotase_vol!J38</f>
-        <v>52293</v>
-      </c>
-      <c r="N76" s="1">
-        <f>[4]Huoltotase_vol!K38</f>
-        <v>52123</v>
-      </c>
-      <c r="O76" s="1">
-        <f>[4]Huoltotase_vol!L38</f>
-        <v>52753</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="str">
-        <f>[4]Huoltotase_vol!A49</f>
-        <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-      </c>
-      <c r="D77" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E77" s="1" t="str">
-        <f>[4]Huoltotase_vol!B49</f>
-        <v>vuosisumma</v>
-      </c>
-      <c r="F77" s="1" t="str">
-        <f>[4]Huoltotase_vol!C49</f>
-        <v>P51KXS13 Yksityiset investoinnit; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-      </c>
-      <c r="G77" s="1">
-        <f>[4]Huoltotase_vol!D49</f>
-        <v>36920</v>
-      </c>
-      <c r="H77" s="1">
-        <f>[4]Huoltotase_vol!E49</f>
-        <v>35991</v>
-      </c>
-      <c r="I77" s="1">
-        <f>[4]Huoltotase_vol!F49</f>
-        <v>36969</v>
-      </c>
-      <c r="J77" s="1">
-        <f>[4]Huoltotase_vol!G49</f>
-        <v>39942</v>
-      </c>
-      <c r="K77" s="1">
-        <f>[4]Huoltotase_vol!H49</f>
-        <v>42226</v>
-      </c>
-      <c r="L77" s="1">
-        <f>[4]Huoltotase_vol!I49</f>
-        <v>43534</v>
-      </c>
-      <c r="M77" s="1">
-        <f>[4]Huoltotase_vol!J49</f>
-        <v>42528</v>
-      </c>
-      <c r="N77" s="1">
-        <f>[4]Huoltotase_vol!K49</f>
-        <v>41290</v>
-      </c>
-      <c r="O77" s="1">
-        <f>[4]Huoltotase_vol!L49</f>
-        <v>43178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1" t="str">
-        <f>[4]Huoltotase_vol!A48</f>
-        <v>StatFin/kan/ntp/statfin_ntp_pxt_132h.px</v>
-      </c>
-      <c r="D78" s="1" t="e">
-        <f>[4]Huoltotase_vol!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E78" s="1" t="str">
-        <f>[4]Huoltotase_vol!B48</f>
-        <v>vuosisumma</v>
-      </c>
-      <c r="F78" s="1" t="str">
-        <f>[4]Huoltotase_vol!C48</f>
-        <v>P51KS13 Julkiset investoinnit; Alkuperäinen sarja, viitevuosi 2015, miljoonaa euroa</v>
-      </c>
-      <c r="G78" s="1">
-        <f>[4]Huoltotase_vol!D48</f>
-        <v>8578</v>
-      </c>
-      <c r="H78" s="1">
-        <f>[4]Huoltotase_vol!E48</f>
-        <v>8672</v>
-      </c>
-      <c r="I78" s="1">
-        <f>[4]Huoltotase_vol!F48</f>
-        <v>7908</v>
-      </c>
-      <c r="J78" s="1">
-        <f>[4]Huoltotase_vol!G48</f>
-        <v>8967</v>
-      </c>
-      <c r="K78" s="1">
-        <f>[4]Huoltotase_vol!H48</f>
-        <v>9009</v>
-      </c>
-      <c r="L78" s="1">
-        <f>[4]Huoltotase_vol!I48</f>
-        <v>9545</v>
-      </c>
-      <c r="M78" s="1">
-        <f>[4]Huoltotase_vol!J48</f>
-        <v>9770</v>
-      </c>
-      <c r="N78" s="1">
-        <f>[4]Huoltotase_vol!K48</f>
-        <v>10863</v>
-      </c>
-      <c r="O78" s="1">
-        <f>[4]Huoltotase_vol!L48</f>
-        <v>9559</v>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <f>100*'[4]Syöttö Inflaatio'!D4</f>
+        <v>1.04</v>
+      </c>
+      <c r="F21">
+        <f>100*'[4]Syöttö Inflaatio'!E4</f>
+        <v>-0.21</v>
+      </c>
+      <c r="G21">
+        <f>100*'[4]Syöttö Inflaatio'!F4</f>
+        <v>0.35</v>
+      </c>
+      <c r="H21">
+        <f>100*'[4]Syöttö Inflaatio'!G4</f>
+        <v>0.74</v>
+      </c>
+      <c r="I21">
+        <f>100*'[4]Syöttö Inflaatio'!H4</f>
+        <v>1.08</v>
+      </c>
+      <c r="J21">
+        <f>100*'[4]Syöttö Inflaatio'!I4</f>
+        <v>1.02</v>
+      </c>
+      <c r="K21">
+        <f>100*'[4]Syöttö Inflaatio'!J4</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L21">
+        <f>100*'[4]Syöttö Inflaatio'!K4</f>
+        <v>2.19</v>
+      </c>
+      <c r="M21">
+        <f>100*'[4]Syöttö Inflaatio'!L4</f>
+        <v>4.4935999999999954</v>
+      </c>
+      <c r="N21">
+        <f>100*'[4]Syöttö Inflaatio'!M4</f>
+        <v>1.9880199999999983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <f>100*'[5]Syöttö Julk.tasapaino'!D4</f>
+        <v>-3.7366419039425414</v>
+      </c>
+      <c r="F22">
+        <f>100*'[5]Syöttö Julk.tasapaino'!E4</f>
+        <v>-2.9836554154741348</v>
+      </c>
+      <c r="G22">
+        <f>100*'[5]Syöttö Julk.tasapaino'!F4</f>
+        <v>-2.626449305344845</v>
+      </c>
+      <c r="H22">
+        <f>100*'[5]Syöttö Julk.tasapaino'!G4</f>
+        <v>-1.7847910526246018</v>
+      </c>
+      <c r="I22">
+        <f>100*'[5]Syöttö Julk.tasapaino'!H4</f>
+        <v>-1.257988246783285</v>
+      </c>
+      <c r="J22">
+        <f>100*'[5]Syöttö Julk.tasapaino'!I4</f>
+        <v>-1.0823341060320533</v>
+      </c>
+      <c r="K22">
+        <f>100*'[5]Syöttö Julk.tasapaino'!J4</f>
+        <v>-5.4996953717515078</v>
+      </c>
+      <c r="L22">
+        <f>100*'[5]Syöttö Julk.tasapaino'!K4</f>
+        <v>-3.2039978808701082</v>
+      </c>
+      <c r="M22">
+        <f>100*'[5]Syöttö Julk.tasapaino'!L4</f>
+        <v>-1.4992617183975949</v>
+      </c>
+      <c r="N22">
+        <f>100*'[5]Syöttö Julk.tasapaino'!M4</f>
+        <v>0.95333664134984708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <f>100*'[5]Syöttö Julk.tasapaino'!D5</f>
+        <v>-0.69938181800606103</v>
+      </c>
+      <c r="F23">
+        <f>100*'[5]Syöttö Julk.tasapaino'!E5</f>
+        <v>-0.71622868226222292</v>
+      </c>
+      <c r="G23">
+        <f>100*'[5]Syöttö Julk.tasapaino'!F5</f>
+        <v>-0.60730606202705073</v>
+      </c>
+      <c r="H23">
+        <f>100*'[5]Syöttö Julk.tasapaino'!G5</f>
+        <v>-0.39681662917972083</v>
+      </c>
+      <c r="I23">
+        <f>100*'[5]Syöttö Julk.tasapaino'!H5</f>
+        <v>-0.19360254938578306</v>
+      </c>
+      <c r="J23">
+        <f>100*'[5]Syöttö Julk.tasapaino'!I5</f>
+        <v>-0.8509414138718876</v>
+      </c>
+      <c r="K23">
+        <f>100*'[5]Syöttö Julk.tasapaino'!J5</f>
+        <v>-1.2563289144729932</v>
+      </c>
+      <c r="L23">
+        <f>100*'[5]Syöttö Julk.tasapaino'!K5</f>
+        <v>1.8186562502471002E-2</v>
+      </c>
+      <c r="M23">
+        <f>100*'[5]Syöttö Julk.tasapaino'!L5</f>
+        <v>-4.1449331491658414E-2</v>
+      </c>
+      <c r="N23">
+        <f>100*'[5]Syöttö Julk.tasapaino'!M5</f>
+        <v>-1.0002699299455775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <f>100*'[5]Syöttö Julk.tasapaino'!D6</f>
+        <v>1.8530959849586994</v>
+      </c>
+      <c r="F24">
+        <f>100*'[5]Syöttö Julk.tasapaino'!E6</f>
+        <v>1.4494879012228872</v>
+      </c>
+      <c r="G24">
+        <f>100*'[5]Syöttö Julk.tasapaino'!F6</f>
+        <v>1.1497899024448552</v>
+      </c>
+      <c r="H24">
+        <f>100*'[5]Syöttö Julk.tasapaino'!G6</f>
+        <v>1.2889912108209862</v>
+      </c>
+      <c r="I24">
+        <f>100*'[5]Syöttö Julk.tasapaino'!H6</f>
+        <v>1.2896842393818424</v>
+      </c>
+      <c r="J24">
+        <f>100*'[5]Syöttö Julk.tasapaino'!I6</f>
+        <v>1.244934376198656</v>
+      </c>
+      <c r="K24">
+        <f>100*'[5]Syöttö Julk.tasapaino'!J6</f>
+        <v>1.3991890585936679</v>
+      </c>
+      <c r="L24">
+        <f>100*'[5]Syöttö Julk.tasapaino'!K6</f>
+        <v>4.1512805712162065E-2</v>
+      </c>
+      <c r="M24">
+        <f>100*'[5]Syöttö Julk.tasapaino'!L6</f>
+        <v>0.76856684955630306</v>
+      </c>
+      <c r="N24">
+        <f>100*'[5]Syöttö Julk.tasapaino'!M6</f>
+        <v>1.2101434328948026</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <f>100*'[5]Syöttö Julk.tasapaino'!D7</f>
+        <v>-2.5829277369899031</v>
+      </c>
+      <c r="F25">
+        <f>100*'[5]Syöttö Julk.tasapaino'!E7</f>
+        <v>-2.2503961965134707</v>
+      </c>
+      <c r="G25">
+        <f>100*'[5]Syöttö Julk.tasapaino'!F7</f>
+        <v>-2.0839654649270405</v>
+      </c>
+      <c r="H25">
+        <f>100*'[5]Syöttö Julk.tasapaino'!G7</f>
+        <v>-0.89261647098333641</v>
+      </c>
+      <c r="I25">
+        <f>100*'[5]Syöttö Julk.tasapaino'!H7</f>
+        <v>-0.16190655678722565</v>
+      </c>
+      <c r="J25">
+        <f>100*'[5]Syöttö Julk.tasapaino'!I7</f>
+        <v>-0.68834114370528499</v>
+      </c>
+      <c r="K25">
+        <f>100*'[5]Syöttö Julk.tasapaino'!J7</f>
+        <v>-5.3568352276308326</v>
+      </c>
+      <c r="L25">
+        <f>100*'[5]Syöttö Julk.tasapaino'!K7</f>
+        <v>-3.1442985126554754</v>
+      </c>
+      <c r="M25">
+        <f>100*'[5]Syöttö Julk.tasapaino'!L7</f>
+        <v>-0.77214420033295028</v>
+      </c>
+      <c r="N25">
+        <f>100*'[5]Syöttö Julk.tasapaino'!M7</f>
+        <v>1.1632101442990725</v>
       </c>
     </row>
   </sheetData>

--- a/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
+++ b/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="106" documentId="8_{83310B53-87FB-406E-B32B-C5F152F2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D98803-204F-487A-9D23-C58B2721FB69}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
+    <workbookView xWindow="1590" yWindow="2070" windowWidth="19155" windowHeight="12480" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -303,10 +303,10 @@
             <v>3.4745626705183774E-2</v>
           </cell>
           <cell r="L5">
-            <v>4.7042944009109003E-3</v>
+            <v>4.6786592549834648E-3</v>
           </cell>
           <cell r="M5">
-            <v>9.5776649327357528E-3</v>
+            <v>9.6762377273743906E-3</v>
           </cell>
         </row>
         <row r="6">
@@ -335,7 +335,7 @@
             <v>5.3363858435903078E-2</v>
           </cell>
           <cell r="L6">
-            <v>3.5000000000000003E-2</v>
+            <v>0.03</v>
           </cell>
           <cell r="M6">
             <v>3.5000000000000003E-2</v>
@@ -463,10 +463,10 @@
             <v>1.2086794697158565E-2</v>
           </cell>
           <cell r="L12">
-            <v>8.7910106653121822E-3</v>
+            <v>4.6780091416962488E-3</v>
           </cell>
           <cell r="M12">
-            <v>-1.8035615641168956E-2</v>
+            <v>-1.7986551045387489E-2</v>
           </cell>
         </row>
         <row r="13">
@@ -495,7 +495,7 @@
             <v>4.5725357229353447E-2</v>
           </cell>
           <cell r="L13">
-            <v>1.4999999999999999E-2</v>
+            <v>0.01</v>
           </cell>
           <cell r="M13">
             <v>-0.03</v>
@@ -536,7 +536,6 @@
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -592,18 +591,18 @@
             <v>70.665833333333296</v>
           </cell>
           <cell r="L6">
+            <v>105</v>
+          </cell>
+          <cell r="M6">
             <v>90</v>
-          </cell>
-          <cell r="M6">
-            <v>68</v>
           </cell>
         </row>
         <row r="7">
           <cell r="L7">
-            <v>1.18</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="M7">
-            <v>1.18</v>
+            <v>1.1000000000000001</v>
           </cell>
         </row>
         <row r="8">
@@ -679,10 +678,10 @@
             <v>2766</v>
           </cell>
           <cell r="L20">
-            <v>2793.66</v>
+            <v>2790.8939999999998</v>
           </cell>
           <cell r="M20">
-            <v>2807.6282999999994</v>
+            <v>2790.8939999999998</v>
           </cell>
         </row>
         <row r="21">
@@ -711,10 +710,10 @@
             <v>2555</v>
           </cell>
           <cell r="L21">
-            <v>2593.3249999999998</v>
+            <v>2598.4349999999999</v>
           </cell>
           <cell r="M21">
-            <v>2606.2916249999994</v>
+            <v>2590.6396949999998</v>
           </cell>
         </row>
         <row r="28">
@@ -743,10 +742,10 @@
             <v>0.72285630670178525</v>
           </cell>
           <cell r="L28">
-            <v>0.73528958892353924</v>
+            <v>0.73673843540417683</v>
           </cell>
           <cell r="M28">
-            <v>0.73896603686815698</v>
+            <v>0.73452822009796426</v>
           </cell>
         </row>
         <row r="29">
@@ -775,10 +774,10 @@
             <v>7.6644974692697029E-2</v>
           </cell>
           <cell r="L29">
-            <v>7.1710587544654703E-2</v>
+            <v>6.8959623690473315E-2</v>
           </cell>
           <cell r="M29">
-            <v>7.1710587544654703E-2</v>
+            <v>7.1752744819401942E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -838,10 +837,10 @@
             <v>2.1899999999999999E-2</v>
           </cell>
           <cell r="L4">
-            <v>4.4935999999999955E-2</v>
+            <v>4.9535999999999927E-2</v>
           </cell>
           <cell r="M4">
-            <v>1.9880199999999983E-2</v>
+            <v>2.473060000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -901,10 +900,10 @@
             <v>-3.2039978808701082E-2</v>
           </cell>
           <cell r="L4">
-            <v>-1.4992617183975949E-2</v>
+            <v>-1.4990842595399328E-2</v>
           </cell>
           <cell r="M4">
-            <v>9.5333664134984713E-3</v>
+            <v>9.5326172914270545E-3</v>
           </cell>
         </row>
         <row r="5">
@@ -933,10 +932,10 @@
             <v>1.8186562502471002E-4</v>
           </cell>
           <cell r="L5">
-            <v>-4.1449331491658412E-4</v>
+            <v>-4.1444425376250334E-4</v>
           </cell>
           <cell r="M5">
-            <v>-1.0002699299455775E-2</v>
+            <v>-1.0001913297691657E-2</v>
           </cell>
         </row>
         <row r="6">
@@ -965,10 +964,10 @@
             <v>4.1512805712162065E-4</v>
           </cell>
           <cell r="L6">
-            <v>7.6856684955630304E-3</v>
+            <v>7.6847587878483229E-3</v>
           </cell>
           <cell r="M6">
-            <v>1.2101434328948026E-2</v>
+            <v>1.2100483410756233E-2</v>
           </cell>
         </row>
         <row r="7">
@@ -997,10 +996,10 @@
             <v>-3.1442985126554752E-2</v>
           </cell>
           <cell r="L7">
-            <v>-7.7214420033295027E-3</v>
+            <v>-7.720528061313508E-3</v>
           </cell>
           <cell r="M7">
-            <v>1.1632101442990725E-2</v>
+            <v>1.1631187404491629E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1427,11 +1426,11 @@
       </c>
       <c r="M2">
         <f>100* '[1]Huoltotase, iterointi'!L5</f>
-        <v>0.47042944009109006</v>
+        <v>0.46786592549834649</v>
       </c>
       <c r="N2">
         <f>100* '[1]Huoltotase, iterointi'!M5</f>
-        <v>0.95776649327357533</v>
+        <v>0.96762377273743905</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1481,7 +1480,7 @@
       </c>
       <c r="M3">
         <f>100* '[1]Huoltotase, iterointi'!L6</f>
-        <v>3.5000000000000004</v>
+        <v>3</v>
       </c>
       <c r="N3">
         <f>100* '[1]Huoltotase, iterointi'!M6</f>
@@ -1697,11 +1696,11 @@
       </c>
       <c r="M7">
         <f>100* '[1]Huoltotase, iterointi'!L12</f>
-        <v>0.87910106653121822</v>
+        <v>0.46780091416962488</v>
       </c>
       <c r="N7">
         <f>100* '[1]Huoltotase, iterointi'!M12</f>
-        <v>-1.8035615641168956</v>
+        <v>-1.7986551045387489</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1751,7 +1750,7 @@
       </c>
       <c r="M8">
         <f>100* '[1]Huoltotase, iterointi'!L13</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f>100* '[1]Huoltotase, iterointi'!M13</f>
@@ -1882,11 +1881,11 @@
       </c>
       <c r="M12" s="2">
         <f>[2]Syöttö!L6</f>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N12" s="2">
         <f>[2]Syöttö!M6</f>
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1895,11 +1894,11 @@
       </c>
       <c r="M13" s="2">
         <f>[2]Syöttö!L7</f>
-        <v>1.18</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N13" s="2">
         <f>[2]Syöttö!M7</f>
-        <v>1.18</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1985,11 +1984,11 @@
       </c>
       <c r="M17">
         <f>100*'[3]Syöttö Työllisyys'!L28</f>
-        <v>73.528958892353927</v>
+        <v>73.673843540417678</v>
       </c>
       <c r="N17">
         <f>100*'[3]Syöttö Työllisyys'!M28</f>
-        <v>73.896603686815695</v>
+        <v>73.452822009796421</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2036,11 +2035,11 @@
       </c>
       <c r="M18">
         <f>100*'[3]Syöttö Työllisyys'!L29</f>
-        <v>7.17105875446547</v>
+        <v>6.8959623690473313</v>
       </c>
       <c r="N18">
         <f>100*'[3]Syöttö Työllisyys'!M29</f>
-        <v>7.17105875446547</v>
+        <v>7.1752744819401943</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2087,11 +2086,11 @@
       </c>
       <c r="M19" s="4">
         <f>'[3]Syöttö Työllisyys'!L20</f>
-        <v>2793.66</v>
+        <v>2790.8939999999998</v>
       </c>
       <c r="N19" s="4">
         <f>'[3]Syöttö Työllisyys'!M20</f>
-        <v>2807.6282999999994</v>
+        <v>2790.8939999999998</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2138,11 +2137,11 @@
       </c>
       <c r="M20" s="4">
         <f>'[3]Syöttö Työllisyys'!L21</f>
-        <v>2593.3249999999998</v>
+        <v>2598.4349999999999</v>
       </c>
       <c r="N20" s="4">
         <f>'[3]Syöttö Työllisyys'!M21</f>
-        <v>2606.2916249999994</v>
+        <v>2590.6396949999998</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2183,11 +2182,11 @@
       </c>
       <c r="M21">
         <f>100*'[4]Syöttö Inflaatio'!L4</f>
-        <v>4.4935999999999954</v>
+        <v>4.9535999999999927</v>
       </c>
       <c r="N21">
         <f>100*'[4]Syöttö Inflaatio'!M4</f>
-        <v>1.9880199999999983</v>
+        <v>2.4730600000000038</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2228,11 +2227,11 @@
       </c>
       <c r="M22">
         <f>100*'[5]Syöttö Julk.tasapaino'!L4</f>
-        <v>-1.4992617183975949</v>
+        <v>-1.4990842595399327</v>
       </c>
       <c r="N22">
         <f>100*'[5]Syöttö Julk.tasapaino'!M4</f>
-        <v>0.95333664134984708</v>
+        <v>0.95326172914270546</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2273,11 +2272,11 @@
       </c>
       <c r="M23">
         <f>100*'[5]Syöttö Julk.tasapaino'!L5</f>
-        <v>-4.1449331491658414E-2</v>
+        <v>-4.1444425376250336E-2</v>
       </c>
       <c r="N23">
         <f>100*'[5]Syöttö Julk.tasapaino'!M5</f>
-        <v>-1.0002699299455775</v>
+        <v>-1.0001913297691658</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2318,11 +2317,11 @@
       </c>
       <c r="M24">
         <f>100*'[5]Syöttö Julk.tasapaino'!L6</f>
-        <v>0.76856684955630306</v>
+        <v>0.76847587878483226</v>
       </c>
       <c r="N24">
         <f>100*'[5]Syöttö Julk.tasapaino'!M6</f>
-        <v>1.2101434328948026</v>
+        <v>1.2100483410756233</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2363,11 +2362,11 @@
       </c>
       <c r="M25">
         <f>100*'[5]Syöttö Julk.tasapaino'!L7</f>
-        <v>-0.77214420033295028</v>
+        <v>-0.77205280613135085</v>
       </c>
       <c r="N25">
         <f>100*'[5]Syöttö Julk.tasapaino'!M7</f>
-        <v>1.1632101442990725</v>
+        <v>1.163118740449163</v>
       </c>
     </row>
   </sheetData>

--- a/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
+++ b/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry-my.sharepoint.com/personal/janne_huovari_ptt_fi/Documents/Rpkg/pttrobo/inst/ennustekuvat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{83310B53-87FB-406E-B32B-C5F152F2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D98803-204F-487A-9D23-C58B2721FB69}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{83310B53-87FB-406E-B32B-C5F152F2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F82F4285-B3B6-4F63-9377-DE685912052C}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="2070" windowWidth="19155" windowHeight="12480" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>BKT</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Nettoluotonanto Jukinen sektori</t>
+  </si>
+  <si>
+    <t>Velkasuhde</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
             <v>4.6786592549834648E-3</v>
           </cell>
           <cell r="M5">
-            <v>9.6762377273743906E-3</v>
+            <v>1.0445423191837461E-2</v>
           </cell>
         </row>
         <row r="6">
@@ -466,7 +469,7 @@
             <v>4.6780091416962488E-3</v>
           </cell>
           <cell r="M12">
-            <v>-1.7986551045387489E-2</v>
+            <v>-1.7887045416287717E-2</v>
           </cell>
         </row>
         <row r="13">
@@ -536,6 +539,7 @@
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -652,6 +656,11 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
+        <row r="11">
+          <cell r="D11">
+            <v>4.9773755656108642E-2</v>
+          </cell>
+        </row>
         <row r="20">
           <cell r="D20">
             <v>2651</v>
@@ -845,7 +854,12 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
@@ -900,106 +914,138 @@
             <v>-3.2039978808701082E-2</v>
           </cell>
           <cell r="L4">
-            <v>-1.4990842595399328E-2</v>
+            <v>-1.7112896638108534E-2</v>
           </cell>
           <cell r="M4">
-            <v>9.5326172914270545E-3</v>
+            <v>-2.0272503245166142E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>-6.9938181800606103E-3</v>
+            <v>-7.3176508117565745E-3</v>
           </cell>
           <cell r="E5">
-            <v>-7.1622868226222294E-3</v>
+            <v>-6.2492608274002416E-3</v>
           </cell>
           <cell r="F5">
-            <v>-6.0730606202705067E-3</v>
+            <v>-4.1283939719931224E-3</v>
           </cell>
           <cell r="G5">
-            <v>-3.9681662917972083E-3</v>
+            <v>-1.997339826160733E-3</v>
           </cell>
           <cell r="H5">
-            <v>-1.9360254938578306E-3</v>
+            <v>-8.7420974180615757E-3</v>
           </cell>
           <cell r="I5">
-            <v>-8.5094141387188765E-3</v>
+            <v>-1.2528559278221571E-2</v>
           </cell>
           <cell r="J5">
-            <v>-1.2563289144729931E-2</v>
+            <v>-5.0421227336708751E-4</v>
           </cell>
           <cell r="K5">
-            <v>1.8186562502471002E-4</v>
+            <v>-3.3368388591490271E-3</v>
           </cell>
           <cell r="L5">
-            <v>-4.1444425376250334E-4</v>
+            <v>-2.2817195517478043E-3</v>
           </cell>
           <cell r="M5">
-            <v>-1.0001913297691657E-2</v>
+            <v>-5.5288645214089478E-3</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>1.8530959849586994E-2</v>
+            <v>1.4809301246513966E-2</v>
           </cell>
           <cell r="E6">
-            <v>1.4494879012228871E-2</v>
+            <v>1.1831492300778202E-2</v>
           </cell>
           <cell r="F6">
-            <v>1.1497899024448551E-2</v>
+            <v>1.3410384427955387E-2</v>
           </cell>
           <cell r="G6">
-            <v>1.2889912108209863E-2</v>
+            <v>1.3305288089756563E-2</v>
           </cell>
           <cell r="H6">
-            <v>1.2896842393818424E-2</v>
+            <v>1.2789761337742218E-2</v>
           </cell>
           <cell r="I6">
-            <v>1.2449343761986559E-2</v>
+            <v>1.3891900005003085E-2</v>
           </cell>
           <cell r="J6">
-            <v>1.3991890585936679E-2</v>
+            <v>3.9076451185949282E-4</v>
           </cell>
           <cell r="K6">
-            <v>4.1512805712162065E-4</v>
+            <v>9.5637597159733377E-3</v>
           </cell>
           <cell r="L6">
-            <v>7.6847587878483229E-3</v>
+            <v>1.4450890494402761E-2</v>
           </cell>
           <cell r="M6">
-            <v>1.2100483410756233E-2</v>
+            <v>1.1057729042817896E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>-2.5829277369899033E-2</v>
+            <v>-2.9874768604668023E-2</v>
           </cell>
           <cell r="E7">
-            <v>-2.2503961965134708E-2</v>
+            <v>-2.4254322681363388E-2</v>
           </cell>
           <cell r="F7">
-            <v>-2.0839654649270404E-2</v>
+            <v>-1.6982502597486186E-2</v>
           </cell>
           <cell r="G7">
-            <v>-8.9261647098333643E-3</v>
+            <v>-6.539962262650187E-3</v>
           </cell>
           <cell r="H7">
-            <v>-1.6190655678722566E-3</v>
+            <v>-8.5322185481522088E-3</v>
           </cell>
           <cell r="I7">
-            <v>-6.8834114370528495E-3</v>
+            <v>-9.4600003335390155E-3</v>
           </cell>
           <cell r="J7">
-            <v>-5.3568352276308323E-2</v>
+            <v>-5.5110401479022665E-2</v>
           </cell>
           <cell r="K7">
-            <v>-3.1442985126554752E-2</v>
+            <v>-2.5813057951876776E-2</v>
           </cell>
           <cell r="L7">
-            <v>-7.720528061313508E-3</v>
+            <v>-4.9437256954535762E-3</v>
           </cell>
           <cell r="M7">
-            <v>1.1631187404491629E-2</v>
+            <v>-1.4743638723757193E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>0.59825961710416287</v>
+          </cell>
+          <cell r="E17">
+            <v>0.63641696430683348</v>
+          </cell>
+          <cell r="F17">
+            <v>0.63176380805266685</v>
+          </cell>
+          <cell r="G17">
+            <v>0.61167206508146232</v>
+          </cell>
+          <cell r="H17">
+            <v>0.5977864204087926</v>
+          </cell>
+          <cell r="I17">
+            <v>0.5959424978736888</v>
+          </cell>
+          <cell r="J17">
+            <v>0.68985482888295968</v>
+          </cell>
+          <cell r="K17">
+            <v>0.65792262013015257</v>
+          </cell>
+          <cell r="L17">
+            <v>0.65185305014107153</v>
+          </cell>
+          <cell r="M17">
+            <v>0.6539209224051219</v>
           </cell>
         </row>
       </sheetData>
@@ -1313,19 +1359,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7F8266-A289-4E7B-843E-FBDDAD3BAAD2}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="2" width="27.44140625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1379,7 +1425,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1430,10 +1476,10 @@
       </c>
       <c r="N2">
         <f>100* '[1]Huoltotase, iterointi'!M5</f>
-        <v>0.96762377273743905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.0445423191837462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1533,7 @@
         <v>3.5000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1541,7 +1587,7 @@
         <v>3.5000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1641,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1649,7 +1695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1700,10 +1746,10 @@
       </c>
       <c r="N7">
         <f>100* '[1]Huoltotase, iterointi'!M12</f>
-        <v>-1.7986551045387489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-1.7887045416287717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1803,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1811,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1824,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1837,7 +1883,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1888,7 +1934,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +1947,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,7 +1960,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +1986,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1991,7 +2037,7 @@
         <v>73.452822009796421</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2042,7 +2088,7 @@
         <v>7.1752744819401943</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2093,7 +2139,7 @@
         <v>2790.8939999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2144,7 +2190,7 @@
         <v>2590.6396949999998</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
@@ -2189,7 +2235,7 @@
         <v>2.4730600000000038</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
@@ -2227,146 +2273,191 @@
       </c>
       <c r="M22">
         <f>100*'[5]Syöttö Julk.tasapaino'!L4</f>
-        <v>-1.4990842595399327</v>
+        <v>-1.7112896638108535</v>
       </c>
       <c r="N22">
         <f>100*'[5]Syöttö Julk.tasapaino'!M4</f>
-        <v>0.95326172914270546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-2.027250324516614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E23">
         <f>100*'[5]Syöttö Julk.tasapaino'!D5</f>
-        <v>-0.69938181800606103</v>
+        <v>-0.73176508117565742</v>
       </c>
       <c r="F23">
         <f>100*'[5]Syöttö Julk.tasapaino'!E5</f>
-        <v>-0.71622868226222292</v>
+        <v>-0.62492608274002415</v>
       </c>
       <c r="G23">
         <f>100*'[5]Syöttö Julk.tasapaino'!F5</f>
-        <v>-0.60730606202705073</v>
+        <v>-0.41283939719931223</v>
       </c>
       <c r="H23">
         <f>100*'[5]Syöttö Julk.tasapaino'!G5</f>
-        <v>-0.39681662917972083</v>
+        <v>-0.19973398261607331</v>
       </c>
       <c r="I23">
         <f>100*'[5]Syöttö Julk.tasapaino'!H5</f>
-        <v>-0.19360254938578306</v>
+        <v>-0.87420974180615763</v>
       </c>
       <c r="J23">
         <f>100*'[5]Syöttö Julk.tasapaino'!I5</f>
-        <v>-0.8509414138718876</v>
+        <v>-1.2528559278221572</v>
       </c>
       <c r="K23">
         <f>100*'[5]Syöttö Julk.tasapaino'!J5</f>
-        <v>-1.2563289144729932</v>
+        <v>-5.042122733670875E-2</v>
       </c>
       <c r="L23">
         <f>100*'[5]Syöttö Julk.tasapaino'!K5</f>
-        <v>1.8186562502471002E-2</v>
+        <v>-0.33368388591490272</v>
       </c>
       <c r="M23">
         <f>100*'[5]Syöttö Julk.tasapaino'!L5</f>
-        <v>-4.1444425376250336E-2</v>
+        <v>-0.22817195517478042</v>
       </c>
       <c r="N23">
         <f>100*'[5]Syöttö Julk.tasapaino'!M5</f>
-        <v>-1.0001913297691658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-0.55288645214089482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E24">
         <f>100*'[5]Syöttö Julk.tasapaino'!D6</f>
-        <v>1.8530959849586994</v>
+        <v>1.4809301246513966</v>
       </c>
       <c r="F24">
         <f>100*'[5]Syöttö Julk.tasapaino'!E6</f>
-        <v>1.4494879012228872</v>
+        <v>1.1831492300778201</v>
       </c>
       <c r="G24">
         <f>100*'[5]Syöttö Julk.tasapaino'!F6</f>
-        <v>1.1497899024448552</v>
+        <v>1.3410384427955386</v>
       </c>
       <c r="H24">
         <f>100*'[5]Syöttö Julk.tasapaino'!G6</f>
-        <v>1.2889912108209862</v>
+        <v>1.3305288089756564</v>
       </c>
       <c r="I24">
         <f>100*'[5]Syöttö Julk.tasapaino'!H6</f>
-        <v>1.2896842393818424</v>
+        <v>1.2789761337742218</v>
       </c>
       <c r="J24">
         <f>100*'[5]Syöttö Julk.tasapaino'!I6</f>
-        <v>1.244934376198656</v>
+        <v>1.3891900005003086</v>
       </c>
       <c r="K24">
         <f>100*'[5]Syöttö Julk.tasapaino'!J6</f>
-        <v>1.3991890585936679</v>
+        <v>3.9076451185949282E-2</v>
       </c>
       <c r="L24">
         <f>100*'[5]Syöttö Julk.tasapaino'!K6</f>
-        <v>4.1512805712162065E-2</v>
+        <v>0.95637597159733378</v>
       </c>
       <c r="M24">
         <f>100*'[5]Syöttö Julk.tasapaino'!L6</f>
-        <v>0.76847587878483226</v>
+        <v>1.4450890494402762</v>
       </c>
       <c r="N24">
         <f>100*'[5]Syöttö Julk.tasapaino'!M6</f>
-        <v>1.2100483410756233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.1057729042817896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E25">
         <f>100*'[5]Syöttö Julk.tasapaino'!D7</f>
-        <v>-2.5829277369899031</v>
+        <v>-2.9874768604668023</v>
       </c>
       <c r="F25">
         <f>100*'[5]Syöttö Julk.tasapaino'!E7</f>
-        <v>-2.2503961965134707</v>
+        <v>-2.4254322681363387</v>
       </c>
       <c r="G25">
         <f>100*'[5]Syöttö Julk.tasapaino'!F7</f>
-        <v>-2.0839654649270405</v>
+        <v>-1.6982502597486187</v>
       </c>
       <c r="H25">
         <f>100*'[5]Syöttö Julk.tasapaino'!G7</f>
-        <v>-0.89261647098333641</v>
+        <v>-0.65399622626501874</v>
       </c>
       <c r="I25">
         <f>100*'[5]Syöttö Julk.tasapaino'!H7</f>
-        <v>-0.16190655678722565</v>
+        <v>-0.85322185481522084</v>
       </c>
       <c r="J25">
         <f>100*'[5]Syöttö Julk.tasapaino'!I7</f>
-        <v>-0.68834114370528499</v>
+        <v>-0.94600003335390159</v>
       </c>
       <c r="K25">
         <f>100*'[5]Syöttö Julk.tasapaino'!J7</f>
-        <v>-5.3568352276308326</v>
+        <v>-5.5110401479022668</v>
       </c>
       <c r="L25">
         <f>100*'[5]Syöttö Julk.tasapaino'!K7</f>
-        <v>-3.1442985126554754</v>
+        <v>-2.5813057951876774</v>
       </c>
       <c r="M25">
         <f>100*'[5]Syöttö Julk.tasapaino'!L7</f>
-        <v>-0.77205280613135085</v>
+        <v>-0.49437256954535763</v>
       </c>
       <c r="N25">
         <f>100*'[5]Syöttö Julk.tasapaino'!M7</f>
-        <v>1.163118740449163</v>
+        <v>-1.4743638723757193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <f>100*'[5]Syöttö Julk.tasapaino'!D17</f>
+        <v>59.825961710416287</v>
+      </c>
+      <c r="F26">
+        <f>100*'[5]Syöttö Julk.tasapaino'!E17</f>
+        <v>63.641696430683346</v>
+      </c>
+      <c r="G26">
+        <f>100*'[5]Syöttö Julk.tasapaino'!F17</f>
+        <v>63.176380805266689</v>
+      </c>
+      <c r="H26">
+        <f>100*'[5]Syöttö Julk.tasapaino'!G17</f>
+        <v>61.167206508146229</v>
+      </c>
+      <c r="I26">
+        <f>100*'[5]Syöttö Julk.tasapaino'!H17</f>
+        <v>59.778642040879262</v>
+      </c>
+      <c r="J26">
+        <f>100*'[5]Syöttö Julk.tasapaino'!I17</f>
+        <v>59.594249787368881</v>
+      </c>
+      <c r="K26">
+        <f>100*'[5]Syöttö Julk.tasapaino'!J17</f>
+        <v>68.985482888295962</v>
+      </c>
+      <c r="L26">
+        <f>100*'[5]Syöttö Julk.tasapaino'!K17</f>
+        <v>65.792262013015261</v>
+      </c>
+      <c r="M26">
+        <f>100*'[5]Syöttö Julk.tasapaino'!L17</f>
+        <v>65.185305014107158</v>
+      </c>
+      <c r="N26">
+        <f>100*'[5]Syöttö Julk.tasapaino'!M17</f>
+        <v>65.392092240512184</v>
       </c>
     </row>
   </sheetData>

--- a/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
+++ b/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
@@ -656,11 +656,6 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="11">
-          <cell r="D11">
-            <v>4.9773755656108642E-2</v>
-          </cell>
-        </row>
         <row r="20">
           <cell r="D20">
             <v>2651</v>

--- a/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
+++ b/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry-my.sharepoint.com/personal/janne_huovari_ptt_fi/Documents/Rpkg/pttrobo/inst/ennustekuvat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{83310B53-87FB-406E-B32B-C5F152F2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F82F4285-B3B6-4F63-9377-DE685912052C}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{83310B53-87FB-406E-B32B-C5F152F2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8970E635-FAFB-41FD-9FFE-17581FAA83D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
   </bookViews>
@@ -656,6 +656,11 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
+        <row r="11">
+          <cell r="D11">
+            <v>4.9773755656108642E-2</v>
+          </cell>
+        </row>
         <row r="20">
           <cell r="D20">
             <v>2651</v>
@@ -1037,10 +1042,10 @@
             <v>0.65792262013015257</v>
           </cell>
           <cell r="L17">
-            <v>0.65185305014107153</v>
+            <v>0.65033190377323957</v>
           </cell>
           <cell r="M17">
-            <v>0.6539209224051219</v>
+            <v>0.65465810434130967</v>
           </cell>
         </row>
       </sheetData>
@@ -1357,12 +1362,13 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="M25" sqref="M25:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2448,11 +2454,11 @@
       </c>
       <c r="M26">
         <f>100*'[5]Syöttö Julk.tasapaino'!L17</f>
-        <v>65.185305014107158</v>
+        <v>65.033190377323962</v>
       </c>
       <c r="N26">
         <f>100*'[5]Syöttö Julk.tasapaino'!M17</f>
-        <v>65.392092240512184</v>
+        <v>65.465810434130972</v>
       </c>
     </row>
   </sheetData>

--- a/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
+++ b/inst/ennustekuvat/ptt_ennusteet_KT_2022_1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="113" documentId="8_{83310B53-87FB-406E-B32B-C5F152F2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8970E635-FAFB-41FD-9FFE-17581FAA83D1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{064C7390-CFFB-4D1E-AC46-6ACB68398C33}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -656,11 +656,6 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="11">
-          <cell r="D11">
-            <v>4.9773755656108642E-2</v>
-          </cell>
-        </row>
         <row r="20">
           <cell r="D20">
             <v>2651</v>
@@ -687,10 +682,10 @@
             <v>2766</v>
           </cell>
           <cell r="L20">
-            <v>2790.8939999999998</v>
+            <v>2793.66</v>
           </cell>
           <cell r="M20">
-            <v>2790.8939999999998</v>
+            <v>2802.0409799999998</v>
           </cell>
         </row>
         <row r="21">
@@ -719,10 +714,10 @@
             <v>2555</v>
           </cell>
           <cell r="L21">
-            <v>2598.4349999999999</v>
+            <v>2608.6549999999997</v>
           </cell>
           <cell r="M21">
-            <v>2590.6396949999998</v>
+            <v>2600.8290349999997</v>
           </cell>
         </row>
         <row r="28">
@@ -751,10 +746,10 @@
             <v>0.72285630670178525</v>
           </cell>
           <cell r="L28">
-            <v>0.73673843540417683</v>
+            <v>0.73963612836545189</v>
           </cell>
           <cell r="M28">
-            <v>0.73452822009796426</v>
+            <v>0.73741721998035548</v>
           </cell>
         </row>
         <row r="29">
@@ -783,10 +778,10 @@
             <v>7.6644974692697029E-2</v>
           </cell>
           <cell r="L29">
-            <v>6.8959623690473315E-2</v>
+            <v>6.6223162446396519E-2</v>
           </cell>
           <cell r="M29">
-            <v>7.1752744819401942E-2</v>
+            <v>7.1809065761771984E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1365,14 +1360,14 @@
       <selection activeCell="M25" sqref="M25:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="1" max="2" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1421,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1480,7 +1475,7 @@
         <v>1.0445423191837462</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1529,7 @@
         <v>3.5000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1588,7 +1583,7 @@
         <v>3.5000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1642,7 +1637,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1696,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1745,7 @@
         <v>-1.7887045416287717</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1804,7 +1799,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1858,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1871,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1884,7 +1879,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1935,7 +1930,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1948,7 +1943,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1961,7 +1956,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1974,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1987,7 +1982,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2031,14 +2026,14 @@
       </c>
       <c r="M17">
         <f>100*'[3]Syöttö Työllisyys'!L28</f>
-        <v>73.673843540417678</v>
+        <v>73.963612836545195</v>
       </c>
       <c r="N17">
         <f>100*'[3]Syöttö Työllisyys'!M28</f>
-        <v>73.452822009796421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>73.741721998035544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2082,14 +2077,14 @@
       </c>
       <c r="M18">
         <f>100*'[3]Syöttö Työllisyys'!L29</f>
-        <v>6.8959623690473313</v>
+        <v>6.6223162446396522</v>
       </c>
       <c r="N18">
         <f>100*'[3]Syöttö Työllisyys'!M29</f>
-        <v>7.1752744819401943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7.1809065761771986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2133,14 +2128,14 @@
       </c>
       <c r="M19" s="4">
         <f>'[3]Syöttö Työllisyys'!L20</f>
-        <v>2790.8939999999998</v>
+        <v>2793.66</v>
       </c>
       <c r="N19" s="4">
         <f>'[3]Syöttö Työllisyys'!M20</f>
-        <v>2790.8939999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2802.0409799999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2184,14 +2179,14 @@
       </c>
       <c r="M20" s="4">
         <f>'[3]Syöttö Työllisyys'!L21</f>
-        <v>2598.4349999999999</v>
+        <v>2608.6549999999997</v>
       </c>
       <c r="N20" s="4">
         <f>'[3]Syöttö Työllisyys'!M21</f>
-        <v>2590.6396949999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2600.8290349999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
@@ -2236,7 +2231,7 @@
         <v>2.4730600000000038</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
@@ -2281,7 +2276,7 @@
         <v>-2.027250324516614</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>39</v>
       </c>
@@ -2326,7 +2321,7 @@
         <v>-0.55288645214089482</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>40</v>
       </c>
@@ -2371,7 +2366,7 @@
         <v>1.1057729042817896</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>41</v>
       </c>
@@ -2416,7 +2411,7 @@
         <v>-1.4743638723757193</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>42</v>
       </c>
